--- a/Trials/Akel_helper.xlsx
+++ b/Trials/Akel_helper.xlsx
@@ -2,39 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Borders" sheetId="1" r:id="rId1"/>
     <sheet name="Colors" sheetId="2" r:id="rId2"/>
     <sheet name="Sizing" sheetId="12" r:id="rId3"/>
-    <sheet name="Chapter 1" sheetId="6" r:id="rId4"/>
-    <sheet name="Graph1" sheetId="3" r:id="rId5"/>
-    <sheet name="Table1" sheetId="4" r:id="rId6"/>
-    <sheet name="Data1" sheetId="5" r:id="rId7"/>
-    <sheet name="Chapter 2" sheetId="7" r:id="rId8"/>
-    <sheet name="Graph2" sheetId="8" r:id="rId9"/>
-    <sheet name="Table2" sheetId="11" r:id="rId10"/>
-    <sheet name="Data2" sheetId="10" r:id="rId11"/>
+    <sheet name="Table" sheetId="13" r:id="rId4"/>
+    <sheet name="Chapter 1" sheetId="6" r:id="rId5"/>
+    <sheet name="Graph1" sheetId="3" r:id="rId6"/>
+    <sheet name="Table1" sheetId="4" r:id="rId7"/>
+    <sheet name="Data1" sheetId="5" r:id="rId8"/>
+    <sheet name="Chapter 2" sheetId="7" r:id="rId9"/>
+    <sheet name="Graph2" sheetId="8" r:id="rId10"/>
+    <sheet name="Table2" sheetId="11" r:id="rId11"/>
+    <sheet name="Data2" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Graph1!$D$3:$K$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Graph2!$G$5:$N$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Table1!$C$2:$D$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Table2!$C$2:$D$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Graph1!$D$3:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Graph2!$G$5:$N$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Table!$C$3:$E$15,Table!$G$3:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Table1!$C$2:$D$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Table2!$C$2:$D$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId12"/>
-    <pivotCache cacheId="11" r:id="rId13"/>
+    <pivotCache cacheId="16" r:id="rId13"/>
+    <pivotCache cacheId="17" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Yellow1</t>
   </si>
@@ -80,6 +82,15 @@
   <si>
     <t>Table 1</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +111,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +172,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EEF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -280,11 +303,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -313,11 +373,105 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -494,11 +648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207729768"/>
-        <c:axId val="207730944"/>
+        <c:axId val="192900240"/>
+        <c:axId val="192901808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207729768"/>
+        <c:axId val="192900240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207730944"/>
+        <c:crossAx val="192901808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -549,7 +703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207730944"/>
+        <c:axId val="192901808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207729768"/>
+        <c:crossAx val="192900240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,7 +865,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -841,11 +994,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207731728"/>
-        <c:axId val="207732512"/>
+        <c:axId val="192900632"/>
+        <c:axId val="192902984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207731728"/>
+        <c:axId val="192900632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +1041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207732512"/>
+        <c:crossAx val="192902984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207732512"/>
+        <c:axId val="192902984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207731728"/>
+        <c:crossAx val="192900632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,7 +1114,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2290,7 +2442,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2351,7 +2503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2391,7 +2543,49 @@
   <dataFields count="1">
     <dataField name="Sum of Y" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <formats count="8">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2401,7 +2595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C3:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2462,7 +2656,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2820,6 +3014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C6:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +3071,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="C3:N8"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>17</v>
+      </c>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C7" s="19">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="20">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="C2:D8"/>
@@ -2950,8 +3222,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="C3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3008,6 +3281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3062,31 +3336,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="20.6328125" customWidth="1"/>
+    <col min="2" max="5" width="60.6328125" customWidth="1"/>
     <col min="6" max="8" width="23.6328125" customWidth="1"/>
     <col min="9" max="10" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E1">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3201,13 +3476,51 @@
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3215,7 +3528,333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <dimension ref="C2:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38">
+        <f>C4+2</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="39">
+        <f>D4*3</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4+2</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="33">
+        <f>H4*3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C5" s="40">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" ref="D5:D15" si="0">C5+2</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="42">
+        <f t="shared" ref="E5:E15" si="1">D5*3</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2</v>
+      </c>
+      <c r="H5" s="47">
+        <f t="shared" ref="H5:H15" si="2">G5+2</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="48">
+        <f t="shared" ref="I5:I15" si="3">H5*3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="37">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="46">
+        <v>3</v>
+      </c>
+      <c r="H6" s="47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="48">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="40">
+        <v>4</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="42">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="46">
+        <v>4</v>
+      </c>
+      <c r="H7" s="47">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="37">
+        <v>5</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G8" s="46">
+        <v>5</v>
+      </c>
+      <c r="H8" s="47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="48">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="40">
+        <v>6</v>
+      </c>
+      <c r="D9" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="42">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="46">
+        <v>6</v>
+      </c>
+      <c r="H9" s="47">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="37">
+        <v>7</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="46">
+        <v>7</v>
+      </c>
+      <c r="H10" s="47">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="48">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="40">
+        <v>8</v>
+      </c>
+      <c r="D11" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="42">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="46">
+        <v>8</v>
+      </c>
+      <c r="H11" s="47">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="48">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="37">
+        <v>9</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="46">
+        <v>9</v>
+      </c>
+      <c r="H12" s="47">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="48">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="40">
+        <v>10</v>
+      </c>
+      <c r="D13" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="42">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="46">
+        <v>10</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="37">
+        <v>11</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G14" s="46">
+        <v>11</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="43">
+        <v>12</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G15" s="34">
+        <v>12</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup scale="230" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -3228,15 +3867,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3297,35 +3936,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C2:P13"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
+    <col min="3" max="4" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>30</v>
+      </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>30</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
@@ -3333,61 +3986,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C4" s="19">
+    <row r="4" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C5" s="19">
+    <row r="5" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="27">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C6" s="19">
+    <row r="6" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C7" s="19">
+    <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="27">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="27">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F13" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3444,9 +4114,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -3459,80 +4129,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="C3:N8"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20">
-        <v>17</v>
-      </c>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C7" s="19">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="20">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>